--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Tgfb3-Tgfbr2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H2">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J2">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N2">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O2">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P2">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q2">
-        <v>19.81034398307455</v>
+        <v>16.04260681701333</v>
       </c>
       <c r="R2">
-        <v>178.293095847671</v>
+        <v>144.38346135312</v>
       </c>
       <c r="S2">
-        <v>0.003276566177874232</v>
+        <v>0.003285395450301988</v>
       </c>
       <c r="T2">
-        <v>0.003276566177874233</v>
+        <v>0.003285395450301989</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H3">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J3">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>208.582405</v>
       </c>
       <c r="O3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P3">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q3">
-        <v>44.66080705315722</v>
+        <v>159.8457355223833</v>
       </c>
       <c r="R3">
-        <v>401.947263478415</v>
+        <v>1438.61161970145</v>
       </c>
       <c r="S3">
-        <v>0.007386751587552743</v>
+        <v>0.03273510709484445</v>
       </c>
       <c r="T3">
-        <v>0.007386751587552745</v>
+        <v>0.03273510709484446</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6423476666666667</v>
+        <v>2.29903</v>
       </c>
       <c r="H4">
-        <v>1.927043</v>
+        <v>6.89709</v>
       </c>
       <c r="I4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="J4">
-        <v>0.01173234890143342</v>
+        <v>0.04075801785348079</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>30.186623</v>
       </c>
       <c r="O4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P4">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q4">
-        <v>6.463435616198777</v>
+        <v>23.13331729189667</v>
       </c>
       <c r="R4">
-        <v>58.170920545789</v>
+        <v>208.19985562707</v>
       </c>
       <c r="S4">
-        <v>0.001069031136006444</v>
+        <v>0.004737515308334347</v>
       </c>
       <c r="T4">
-        <v>0.001069031136006444</v>
+        <v>0.004737515308334349</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>66.829058</v>
       </c>
       <c r="I5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J5">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N5">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O5">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P5">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q5">
-        <v>687.0145746850695</v>
+        <v>155.4441512935716</v>
       </c>
       <c r="R5">
-        <v>6183.131172165627</v>
+        <v>1398.997361642144</v>
       </c>
       <c r="S5">
-        <v>0.1136299662965463</v>
+        <v>0.03183369842950689</v>
       </c>
       <c r="T5">
-        <v>0.1136299662965463</v>
+        <v>0.0318336984295069</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>66.829058</v>
       </c>
       <c r="I6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J6">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>208.582405</v>
       </c>
       <c r="O6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P6">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q6">
         <v>1548.818404613832</v>
@@ -818,10 +818,10 @@
         <v>13939.36564152449</v>
       </c>
       <c r="S6">
-        <v>0.2561695044044967</v>
+        <v>0.3171854174264177</v>
       </c>
       <c r="T6">
-        <v>0.2561695044044967</v>
+        <v>0.3171854174264178</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>66.829058</v>
       </c>
       <c r="I7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234065</v>
       </c>
       <c r="J7">
-        <v>0.4068730304461968</v>
+        <v>0.3949230674234066</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>30.186623</v>
       </c>
       <c r="O7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P7">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q7">
         <v>224.1492865879038</v>
@@ -880,10 +880,10 @@
         <v>2017.343579291134</v>
       </c>
       <c r="S7">
-        <v>0.03707355974515386</v>
+        <v>0.04590395156748193</v>
       </c>
       <c r="T7">
-        <v>0.03707355974515386</v>
+        <v>0.04590395156748195</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>95.494299</v>
       </c>
       <c r="I8">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J8">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.84053233333333</v>
+        <v>6.977989333333333</v>
       </c>
       <c r="N8">
-        <v>92.521597</v>
+        <v>20.933968</v>
       </c>
       <c r="O8">
-        <v>0.2792762306509579</v>
+        <v>0.08060734116444308</v>
       </c>
       <c r="P8">
-        <v>0.2792762306509579</v>
+        <v>0.0806073411644431</v>
       </c>
       <c r="Q8">
-        <v>981.6983386528336</v>
+        <v>222.1193999387147</v>
       </c>
       <c r="R8">
-        <v>8835.285047875503</v>
+        <v>1999.074599448432</v>
       </c>
       <c r="S8">
-        <v>0.1623696981765374</v>
+        <v>0.0454882472846342</v>
       </c>
       <c r="T8">
-        <v>0.1623696981765374</v>
+        <v>0.04548824728463421</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>95.494299</v>
       </c>
       <c r="I9">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J9">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>208.582405</v>
       </c>
       <c r="O9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597853</v>
       </c>
       <c r="P9">
-        <v>0.6296055163046042</v>
+        <v>0.8031574845597854</v>
       </c>
       <c r="Q9">
         <v>2213.158949912121</v>
@@ -1004,10 +1004,10 @@
         <v>19918.43054920909</v>
       </c>
       <c r="S9">
-        <v>0.3660492603125547</v>
+        <v>0.4532369600385231</v>
       </c>
       <c r="T9">
-        <v>0.3660492603125547</v>
+        <v>0.4532369600385232</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>95.494299</v>
       </c>
       <c r="I10">
-        <v>0.5813946206523698</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="J10">
-        <v>0.5813946206523697</v>
+        <v>0.5643189147231126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>30.186623</v>
       </c>
       <c r="O10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757715</v>
       </c>
       <c r="P10">
-        <v>0.09111825304443795</v>
+        <v>0.1162351742757716</v>
       </c>
       <c r="Q10">
-        <v>320.2944891735863</v>
+        <v>320.2944891735864</v>
       </c>
       <c r="R10">
         <v>2882.650402562277</v>
       </c>
       <c r="S10">
-        <v>0.05297566216327764</v>
+        <v>0.06559370739995525</v>
       </c>
       <c r="T10">
-        <v>0.05297566216327763</v>
+        <v>0.06559370739995525</v>
       </c>
     </row>
   </sheetData>
